--- a/Legales y Administrativos/Uso de información/fuentes_de_información.xlsx
+++ b/Legales y Administrativos/Uso de información/fuentes_de_información.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DATA INTELLIGENCE\Legal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\Legales y Administrativos\Uso de información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D45107-5752-44C7-8B34-980869D54842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B886D2C7-3F71-42B3-AC23-8F003E292D26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8E6A4C0C-EE83-449B-9D0E-030A6AB2ED3F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t xml:space="preserve">Red Chilena Contra la Violencia Hacia las Mujeres - SERNAMEG - Mesa Intersectorial </t>
   </si>
@@ -148,6 +148,123 @@
   </si>
   <si>
     <t>No comercial</t>
+  </si>
+  <si>
+    <t>Observatorio Urbano</t>
+  </si>
+  <si>
+    <t>http://seguimientoipt.minvu.cl/main.php</t>
+  </si>
+  <si>
+    <t>Comisión Nacional de Energía</t>
+  </si>
+  <si>
+    <t>https://www.cne.cl/wp-content/uploads/2021/04/Capacidad_Instalada_Generaci%C3%B3n.xlsx</t>
+  </si>
+  <si>
+    <t>Aduana de Chile</t>
+  </si>
+  <si>
+    <t>https://www.aduana.cl/aduana/site/edic/base/port/estadisticas.html?filtro=20181205220946</t>
+  </si>
+  <si>
+    <t>CONAF</t>
+  </si>
+  <si>
+    <t>https://www.conaf.cl/incendios-forestales/incendios-forestales-en-chile/estadisticas-historicas/</t>
+  </si>
+  <si>
+    <t>Consejo de Monumentos Nacionales de Chile</t>
+  </si>
+  <si>
+    <t>https://www.monumentos.gob.cl/monumentos</t>
+  </si>
+  <si>
+    <t>Observatorio Cultural</t>
+  </si>
+  <si>
+    <t>http://observatorio.cultura.gob.cl/index.php/espacios-culturales/</t>
+  </si>
+  <si>
+    <t>Ministerio de Ciencia, Tecnología, Conocimiento e Innovación de Chile</t>
+  </si>
+  <si>
+    <t>Our World in Data</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/emissions-by-fuel</t>
+  </si>
+  <si>
+    <t>Sistema Nacional de Inventarios de Gases de Efecto Invernadero</t>
+  </si>
+  <si>
+    <t>https://snichile.mma.gob.cl/consulta/</t>
+  </si>
+  <si>
+    <t>Dirección General de Aguas (DGA)</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/cExtracciones2/#/busquedaPublica</t>
+  </si>
+  <si>
+    <t>https://www.sag.gob.cl/ambitos-de-accion/establecimientos-productores-procesadores-y-elaboradores/1702/registros</t>
+  </si>
+  <si>
+    <t>Instituto Forestal</t>
+  </si>
+  <si>
+    <t>https://wef.infor.cl/estadisticas_regionales/estadisticasregionales.php</t>
+  </si>
+  <si>
+    <t>Sernapesca</t>
+  </si>
+  <si>
+    <t>http://www.sernapesca.cl/sites/default/files/2019_0201_series_2009-2019.xls</t>
+  </si>
+  <si>
+    <t>Departamento de Estadísticas e Información de la Salud (DEIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deis.minsal.cl/#datosabiertos </t>
+  </si>
+  <si>
+    <t>Datos.gob</t>
+  </si>
+  <si>
+    <t>https://datos.gob.cl/dataset/farmacias-en-chile</t>
+  </si>
+  <si>
+    <t>Poder Judicial</t>
+  </si>
+  <si>
+    <t>https://www2.pjud.cl/web/guest/cuadro-resumen-estadisticas-anuales-del-poder-judicial-ano-2007-a-2016</t>
+  </si>
+  <si>
+    <t>Instituto Nacional De Estadísticas (INE)</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/economia/agricultura-agroindustria-y-pesca/cosecha</t>
+  </si>
+  <si>
+    <t>Ministerio de Educación</t>
+  </si>
+  <si>
+    <t>http://datos.mineduc.cl/dashboards/20015/descarga-bases-de-datos-directorio-de-establecimientos-educacionales/</t>
+  </si>
+  <si>
+    <t>http://informacionestadistica.agenciaeducacion.cl/#/bases</t>
+  </si>
+  <si>
+    <t>Servicio Agrícola Ganadero (SAG)</t>
+  </si>
+  <si>
+    <t>https://www.minciencia.gob.cl/areas-de-trabajo/estudios-y-estadisticas/mas-sobre-estudios-y-estadisticas/</t>
+  </si>
+  <si>
+    <t>http://www.sernapesca.cl/informes/estadisticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agencia de Calidad de Educacion </t>
   </si>
 </sst>
 </file>
@@ -211,11 +328,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,12 +356,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{8AE1F88E-226B-45E0-A8FE-9EA9C0EAC717}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -285,6 +405,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -301,69 +424,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -435,14 +495,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:E14" totalsRowShown="0">
-  <autoFilter ref="A2:E14" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:E33" totalsRowShown="0">
+  <autoFilter ref="A2:E33" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="11" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="4" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,19 +805,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB270F-33D0-487D-A6E1-B046741FF077}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.54296875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
@@ -941,8 +1001,188 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D14">
+  <conditionalFormatting sqref="D3:D13 E14:E33">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="autorización ">
       <formula>NOT(ISERROR(SEARCH("autorización ",D3)))</formula>
     </cfRule>
@@ -967,11 +1207,25 @@
     <hyperlink ref="E11" r:id="rId8" xr:uid="{D7C2CE0B-7162-4A22-8606-08E77F2199AC}"/>
     <hyperlink ref="E12" r:id="rId9" xr:uid="{252471BB-CDD6-4BE6-B778-DF5DBE7340C5}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{FFFF85CD-B62B-4107-A8C6-D3BC05F03652}"/>
+    <hyperlink ref="E27" r:id="rId11" location="datosabiertos " xr:uid="{FBD381E0-F15D-45D0-A9A2-ABADED8478D3}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{EE457F07-2117-444C-B205-14332D5F3C56}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{1B3D93D2-7F41-4D13-9B09-9098660363F0}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{E13D4492-69D9-4DF2-A487-DD6D6C39E80A}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{764ED322-69D1-4781-A5C8-D9136DB2F2E6}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{D894B7EE-79FF-4850-82D3-B99DED78ECA5}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{4542365D-8115-4E00-955A-439E42AD01E9}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{DA45A962-CD76-4949-BD3F-D577951A3A48}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{16E09A90-C43F-4CBB-9815-CC7AB0076BCE}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{A5391AB0-8393-4270-83FE-167C806845A0}"/>
+    <hyperlink ref="E20" r:id="rId21" xr:uid="{74207EBC-8240-4903-82DE-83AABD7D239E}"/>
+    <hyperlink ref="E32" r:id="rId22" location="/bases" xr:uid="{52D5181C-8315-4E99-A663-B7B4219CA3A0}"/>
+    <hyperlink ref="E31" r:id="rId23" xr:uid="{C2C87C81-8B30-412A-AF37-C2383BF75D50}"/>
+    <hyperlink ref="E29" r:id="rId24" xr:uid="{CB29DEB1-6FC9-4290-834E-67546F9FD2D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>